--- a/FreteDedicado.xlsx
+++ b/FreteDedicado.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\Documents\PYTHON - FREELANCER\Calculadora de Frete\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BAFBAD-C50E-4D12-A0A6-D3D859F89316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-20520" yWindow="-30" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="base"/>
+    <sheet name="base" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="75">
   <si>
     <t>Tipo</t>
   </si>
@@ -236,13 +242,15 @@
   </si>
   <si>
     <t>Milk Run</t>
+  </si>
+  <si>
+    <t>UF1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,50 +307,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -353,10 +363,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -394,71 +404,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,7 +496,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -509,11 +519,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -522,13 +532,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -538,7 +548,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -547,7 +557,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -556,7 +566,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -564,10 +574,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -632,33 +642,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -702,7 +714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -710,7 +722,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
@@ -725,7 +737,7 @@
         <v>1943.1552807721582</v>
       </c>
       <c r="H2" s="5">
-        <v>2445.275159360165</v>
+        <v>2445.2751593601652</v>
       </c>
       <c r="I2" s="5">
         <v>3369.1317280573703</v>
@@ -734,7 +746,7 @@
         <v>4102.2243441135715</v>
       </c>
       <c r="K2" s="5">
-        <v>6954.160048096213</v>
+        <v>6954.1600480962134</v>
       </c>
       <c r="L2" s="5">
         <v>8181.3647624661335</v>
@@ -746,7 +758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -754,7 +766,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>22</v>
@@ -778,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="5">
-        <v>5447.851984095543</v>
+        <v>5447.8519840955432</v>
       </c>
       <c r="L3" s="5">
-        <v>6409.237628347698</v>
+        <v>6409.2376283476979</v>
       </c>
       <c r="M3" s="5">
         <v>0.05</v>
@@ -790,7 +802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -798,7 +810,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>26</v>
@@ -810,16 +822,16 @@
         <v>28</v>
       </c>
       <c r="G4" s="5">
-        <v>4028.160363145708</v>
+        <v>4028.1603631457078</v>
       </c>
       <c r="H4" s="5">
-        <v>5102.700453932135</v>
+        <v>5102.7004539321351</v>
       </c>
       <c r="I4" s="5">
         <v>6601.875567415168</v>
       </c>
       <c r="J4" s="5">
-        <v>9057.000711478531</v>
+        <v>9057.0007114785312</v>
       </c>
       <c r="K4" s="5">
         <v>13631.179066321567</v>
@@ -834,7 +846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -842,7 +854,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -860,7 +872,7 @@
         <v>5106.4623205154285</v>
       </c>
       <c r="I5" s="5">
-        <v>6663.077900644285</v>
+        <v>6663.0779006442854</v>
       </c>
       <c r="J5" s="5">
         <v>8278.07</v>
@@ -878,7 +890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -886,9 +898,9 @@
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -898,13 +910,13 @@
         <v>33</v>
       </c>
       <c r="G6" s="5">
-        <v>3645.222215620827</v>
+        <v>3645.2222156208268</v>
       </c>
       <c r="H6" s="5">
-        <v>4599.277769526034</v>
+        <v>4599.2777695260338</v>
       </c>
       <c r="I6" s="5">
-        <v>5732.59113616332</v>
+        <v>5732.5911361633198</v>
       </c>
       <c r="J6" s="5">
         <v>7282.27</v>
@@ -922,7 +934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -930,7 +942,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>34</v>
@@ -948,7 +960,7 @@
         <v>3413.4590673440875</v>
       </c>
       <c r="I7" s="5">
-        <v>4568.82383418011</v>
+        <v>4568.8238341801098</v>
       </c>
       <c r="J7" s="5">
         <v>6069.02</v>
@@ -966,7 +978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -974,7 +986,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>36</v>
@@ -989,13 +1001,13 @@
         <v>4042.3710540220886</v>
       </c>
       <c r="H8" s="5">
-        <v>5106.213817527611</v>
+        <v>5106.2138175276114</v>
       </c>
       <c r="I8" s="5">
-        <v>6673.267271909513</v>
+        <v>6673.2672719095126</v>
       </c>
       <c r="J8" s="5">
-        <v>8459.000711478531</v>
+        <v>8459.0007114785312</v>
       </c>
       <c r="K8" s="6">
         <v>12720</v>
@@ -1010,7 +1022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1020,7 +1032,7 @@
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1033,16 +1045,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="5">
-        <v>3185.324960916956</v>
+        <v>3185.3249609169561</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
       </c>
       <c r="J9" s="5">
-        <v>5435.512871241633</v>
+        <v>5435.5128712416326</v>
       </c>
       <c r="K9" s="5">
-        <v>8901.360938149071</v>
+        <v>8901.3609381490714</v>
       </c>
       <c r="L9" s="5">
         <v>10472.189338998907</v>
@@ -1054,7 +1066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1083,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <v>4669.599693930311</v>
+        <v>4669.5996939303113</v>
       </c>
       <c r="K10" s="5">
-        <v>6650.385171362032</v>
+        <v>6650.3851713620325</v>
       </c>
       <c r="L10" s="5">
-        <v>7823.982554543568</v>
+        <v>7823.9825545435679</v>
       </c>
       <c r="M10" s="5">
         <v>0.05</v>
@@ -1098,7 +1110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1133,7 +1145,7 @@
         <v>3803.4347378368007</v>
       </c>
       <c r="L11" s="5">
-        <v>4474.629103337413</v>
+        <v>4474.6291033374127</v>
       </c>
       <c r="M11" s="5">
         <v>0.05</v>
@@ -1142,7 +1154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>42</v>
@@ -1165,19 +1177,19 @@
         <v>1385.2739105883418</v>
       </c>
       <c r="H12" s="5">
-        <v>1954.051248367717</v>
+        <v>1954.0512483677171</v>
       </c>
       <c r="I12" s="5">
         <v>3092.8147087536568</v>
       </c>
       <c r="J12" s="5">
-        <v>4361.211054607595</v>
+        <v>4361.2110546075946</v>
       </c>
       <c r="K12" s="5">
-        <v>7233.337104057818</v>
+        <v>7233.3371040578177</v>
       </c>
       <c r="L12" s="5">
-        <v>8785.102475362139</v>
+        <v>8785.1024753621386</v>
       </c>
       <c r="M12" s="5">
         <v>0.05</v>
@@ -1186,7 +1198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -1194,7 +1206,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>45</v>
@@ -1230,7 +1242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1238,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>47</v>
@@ -1274,7 +1286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1282,7 +1294,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>49</v>
@@ -1303,7 +1315,7 @@
         <v>5600</v>
       </c>
       <c r="J15" s="5">
-        <v>7284.795</v>
+        <v>7284.7950000000001</v>
       </c>
       <c r="K15" s="5">
         <v>11569.971000000001</v>
@@ -1318,7 +1330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1326,7 +1338,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>51</v>
@@ -1341,10 +1353,10 @@
         <v>4577.1187650838265</v>
       </c>
       <c r="H16" s="5">
-        <v>5805.648456354783</v>
+        <v>5805.6484563547829</v>
       </c>
       <c r="I16" s="5">
-        <v>7578.560570443479</v>
+        <v>7578.5605704434793</v>
       </c>
       <c r="J16" s="5">
         <v>10178.424074349947</v>
@@ -1353,7 +1365,7 @@
         <v>14617.49260051804</v>
       </c>
       <c r="L16" s="5">
-        <v>17426.4618829624</v>
+        <v>17426.461882962401</v>
       </c>
       <c r="M16" s="5">
         <v>0.05</v>
@@ -1362,7 +1374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
@@ -1370,7 +1382,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>53</v>
@@ -1385,13 +1397,13 @@
         <v>2898.52363764243</v>
       </c>
       <c r="H17" s="5">
-        <v>3687.904547053037</v>
+        <v>3687.9045470530368</v>
       </c>
       <c r="I17" s="5">
-        <v>4911.880683816296</v>
+        <v>4911.8806838162964</v>
       </c>
       <c r="J17" s="5">
-        <v>6848.600767492738</v>
+        <v>6848.6007674927378</v>
       </c>
       <c r="K17" s="5">
         <v>10619.000205026266</v>
@@ -1406,7 +1418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1414,7 +1426,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>55</v>
@@ -1429,19 +1441,19 @@
         <v>1573.5452280006407</v>
       </c>
       <c r="H18" s="5">
-        <v>2190.060828056674</v>
+        <v>2190.0608280566739</v>
       </c>
       <c r="I18" s="5">
         <v>3431.7271469186935</v>
       </c>
       <c r="J18" s="5">
-        <v>4762.88632877266</v>
+        <v>4762.8863287726599</v>
       </c>
       <c r="K18" s="5">
-        <v>7888.590738627267</v>
+        <v>7888.5907386272665</v>
       </c>
       <c r="L18" s="5">
-        <v>9555.989104267373</v>
+        <v>9555.9891042673735</v>
       </c>
       <c r="M18" s="5">
         <v>0.05</v>
@@ -1450,7 +1462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>57</v>
       </c>
@@ -1494,7 +1506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1502,7 +1514,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>60</v>
@@ -1514,13 +1526,13 @@
         <v>61</v>
       </c>
       <c r="G20" s="5">
-        <v>4518.003</v>
+        <v>4518.0029999999997</v>
       </c>
       <c r="H20" s="5">
-        <v>5422.168500000001</v>
+        <v>5422.1685000000007</v>
       </c>
       <c r="I20" s="5">
-        <v>7087.4475</v>
+        <v>7087.4475000000002</v>
       </c>
       <c r="J20" s="5">
         <v>8840.853000000001</v>
@@ -1538,7 +1550,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -1546,7 +1558,7 @@
         <v>45</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>26</v>
@@ -1558,16 +1570,16 @@
         <v>28</v>
       </c>
       <c r="G21" s="5">
-        <v>3898.160363145708</v>
+        <v>3898.1603631457078</v>
       </c>
       <c r="H21" s="5">
-        <v>4712.700453932135</v>
+        <v>4712.7004539321351</v>
       </c>
       <c r="I21" s="5">
         <v>5730.875567415168</v>
       </c>
       <c r="J21" s="5">
-        <v>7367.000711478531</v>
+        <v>7367.0007114785312</v>
       </c>
       <c r="K21" s="5">
         <v>10771.179066321567</v>
@@ -1582,7 +1594,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1590,7 +1602,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>26</v>
@@ -1602,16 +1614,16 @@
         <v>28</v>
       </c>
       <c r="G22" s="5">
-        <v>3898.160363145708</v>
+        <v>3898.1603631457078</v>
       </c>
       <c r="H22" s="5">
-        <v>4712.700453932135</v>
+        <v>4712.7004539321351</v>
       </c>
       <c r="I22" s="5">
         <v>5730.875567415168</v>
       </c>
       <c r="J22" s="5">
-        <v>7367.000711478531</v>
+        <v>7367.0007114785312</v>
       </c>
       <c r="K22" s="5">
         <v>10771.179066321567</v>
@@ -1626,7 +1638,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -1634,7 +1646,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>51</v>
@@ -1649,13 +1661,13 @@
         <v>4382.1187650838265</v>
       </c>
       <c r="H23" s="5">
-        <v>5415.648456354783</v>
+        <v>5415.6484563547829</v>
       </c>
       <c r="I23" s="5">
-        <v>6707.560570443479</v>
+        <v>6707.5605704434793</v>
       </c>
       <c r="J23" s="5">
-        <v>8488.424074349947</v>
+        <v>8488.4240743499467</v>
       </c>
       <c r="K23" s="5">
         <v>11497.49260051804</v>
@@ -1670,7 +1682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -1678,7 +1690,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>53</v>
@@ -1693,19 +1705,19 @@
         <v>2703.52363764243</v>
       </c>
       <c r="H24" s="5">
-        <v>3297.904547053037</v>
+        <v>3297.9045470530368</v>
       </c>
       <c r="I24" s="5">
         <v>4040.8806838162964</v>
       </c>
       <c r="J24" s="5">
-        <v>5158.600767492738</v>
+        <v>5158.6007674927378</v>
       </c>
       <c r="K24" s="5">
-        <v>7499.000205026267</v>
+        <v>7499.0002050262674</v>
       </c>
       <c r="L24" s="5">
-        <v>8822.353182383844</v>
+        <v>8822.3531823838439</v>
       </c>
       <c r="M24" s="5">
         <v>0.05</v>
@@ -1714,7 +1726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1722,7 +1734,7 @@
         <v>45</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -1740,13 +1752,13 @@
         <v>4716.4623205154285</v>
       </c>
       <c r="I25" s="5">
-        <v>5792.077900644285</v>
+        <v>5792.0779006442854</v>
       </c>
       <c r="J25" s="5">
         <v>6588.07</v>
       </c>
       <c r="K25" s="5">
-        <v>9501.79</v>
+        <v>9501.7900000000009</v>
       </c>
       <c r="L25" s="5">
         <v>10778.33</v>
@@ -1758,7 +1770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1766,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>32</v>
@@ -1778,13 +1790,13 @@
         <v>33</v>
       </c>
       <c r="G26" s="5">
-        <v>3450.222215620827</v>
+        <v>3450.2222156208268</v>
       </c>
       <c r="H26" s="5">
-        <v>4209.277769526034</v>
+        <v>4209.2777695260338</v>
       </c>
       <c r="I26" s="5">
-        <v>4861.59113616332</v>
+        <v>4861.5911361633198</v>
       </c>
       <c r="J26" s="5">
         <v>5592.27</v>
@@ -1802,7 +1814,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
@@ -1810,7 +1822,7 @@
         <v>45</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>34</v>
@@ -1831,7 +1843,7 @@
         <v>3697.8238341801098</v>
       </c>
       <c r="J27" s="5">
-        <v>4379.02</v>
+        <v>4379.0200000000004</v>
       </c>
       <c r="K27" s="5">
         <v>6339.57</v>
@@ -1846,7 +1858,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1854,7 +1866,7 @@
         <v>45</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>36</v>
@@ -1869,13 +1881,13 @@
         <v>3847.3710540220886</v>
       </c>
       <c r="H28" s="5">
-        <v>4716.213817527611</v>
+        <v>4716.2138175276114</v>
       </c>
       <c r="I28" s="5">
-        <v>5802.267271909513</v>
+        <v>5802.2672719095126</v>
       </c>
       <c r="J28" s="5">
-        <v>6769.000711478531</v>
+        <v>6769.0007114785312</v>
       </c>
       <c r="K28" s="6">
         <v>9600</v>
@@ -1890,7 +1902,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
@@ -1898,7 +1910,7 @@
         <v>45</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>63</v>
@@ -1913,13 +1925,13 @@
         <v>4506.1187650838265</v>
       </c>
       <c r="H29" s="5">
-        <v>5539.648456354783</v>
+        <v>5539.6484563547829</v>
       </c>
       <c r="I29" s="5">
-        <v>6831.560570443479</v>
+        <v>6831.5605704434793</v>
       </c>
       <c r="J29" s="5">
-        <v>8978.285937535778</v>
+        <v>8978.2859375357784</v>
       </c>
       <c r="K29" s="5">
         <v>13222.318797939814</v>
@@ -1934,7 +1946,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
@@ -1969,7 +1981,7 @@
         <v>3803.4347378368007</v>
       </c>
       <c r="L30" s="5">
-        <v>4474.629103337413</v>
+        <v>4474.6291033374127</v>
       </c>
       <c r="M30" s="5">
         <v>0.05</v>
@@ -1978,7 +1990,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>44</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row r="32" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -2042,10 +2054,10 @@
         <v>67</v>
       </c>
       <c r="G32" s="5">
-        <v>687.8813701838166</v>
+        <v>687.88137018381656</v>
       </c>
       <c r="H32" s="5">
-        <v>881.2239109924483</v>
+        <v>881.22391099244828</v>
       </c>
       <c r="I32" s="5">
         <v>1147.3170193037138</v>
@@ -2066,7 +2078,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row r="33" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>20</v>
       </c>
@@ -2074,7 +2086,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>42</v>
@@ -2089,19 +2101,19 @@
         <v>1255.2739105883418</v>
       </c>
       <c r="H33" s="5">
-        <v>1564.051248367717</v>
+        <v>1564.0512483677171</v>
       </c>
       <c r="I33" s="5">
         <v>2221.8147087536568</v>
       </c>
       <c r="J33" s="5">
-        <v>2671.211054607595</v>
+        <v>2671.2110546075951</v>
       </c>
       <c r="K33" s="5">
-        <v>4373.337104057818</v>
+        <v>4373.3371040578177</v>
       </c>
       <c r="L33" s="5">
-        <v>5145.102475362138</v>
+        <v>5145.1024753621377</v>
       </c>
       <c r="M33" s="5">
         <v>0.05</v>
@@ -2110,7 +2122,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row r="34" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
@@ -2133,19 +2145,19 @@
         <v>1255.2739105883418</v>
       </c>
       <c r="H34" s="5">
-        <v>1564.051248367717</v>
+        <v>1564.0512483677171</v>
       </c>
       <c r="I34" s="5">
         <v>2221.8147087536568</v>
       </c>
       <c r="J34" s="5">
-        <v>2671.211054607595</v>
+        <v>2671.2110546075951</v>
       </c>
       <c r="K34" s="5">
-        <v>4373.337104057818</v>
+        <v>4373.3371040578177</v>
       </c>
       <c r="L34" s="5">
-        <v>5145.102475362138</v>
+        <v>5145.1024753621377</v>
       </c>
       <c r="M34" s="5">
         <v>0.05</v>
@@ -2154,7 +2166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row r="35" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
@@ -2174,7 +2186,7 @@
         <v>71</v>
       </c>
       <c r="G35" s="5">
-        <v>948.9847095661015</v>
+        <v>948.98470956610151</v>
       </c>
       <c r="H35" s="5">
         <v>1215.0823163489374</v>
@@ -2198,7 +2210,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row r="36" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>13</v>
       </c>
@@ -2221,19 +2233,19 @@
         <v>1443.5452280006407</v>
       </c>
       <c r="H36" s="5">
-        <v>1800.060828056674</v>
+        <v>1800.0608280566739</v>
       </c>
       <c r="I36" s="5">
         <v>2560.7271469186935</v>
       </c>
       <c r="J36" s="5">
-        <v>3072.88632877266</v>
+        <v>3072.8863287726599</v>
       </c>
       <c r="K36" s="5">
-        <v>5028.590738627267</v>
+        <v>5028.5907386272665</v>
       </c>
       <c r="L36" s="5">
-        <v>5915.989104267373</v>
+        <v>5915.9891042673726</v>
       </c>
       <c r="M36" s="5">
         <v>0.05</v>
@@ -2242,7 +2254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row r="37" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>20</v>
       </c>
@@ -2262,7 +2274,7 @@
         <v>61</v>
       </c>
       <c r="G37" s="5">
-        <v>948.9847095661015</v>
+        <v>948.98470956610151</v>
       </c>
       <c r="H37" s="5">
         <v>1215.0823163489374</v>
@@ -2286,7 +2298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row r="38" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>20</v>
       </c>
@@ -2306,10 +2318,10 @@
         <v>43</v>
       </c>
       <c r="G38" s="5">
-        <v>687.8813701838166</v>
+        <v>687.88137018381656</v>
       </c>
       <c r="H38" s="5">
-        <v>881.2239109924483</v>
+        <v>881.22391099244828</v>
       </c>
       <c r="I38" s="5">
         <v>1147.3170193037138</v>
@@ -2330,7 +2342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row r="39" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>73</v>
       </c>

--- a/FreteDedicado.xlsx
+++ b/FreteDedicado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\Documents\PYTHON - FREELANCER\Calculadora de Frete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BAFBAD-C50E-4D12-A0A6-D3D859F89316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E3A070-6E0E-41A9-873C-921E47BAA657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-30" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="75">
   <si>
     <t>Tipo</t>
   </si>
@@ -646,10 +646,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,40 +1602,40 @@
         <v>45</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G22" s="5">
-        <v>3898.1603631457078</v>
+        <v>4382.1187650838265</v>
       </c>
       <c r="H22" s="5">
-        <v>4712.7004539321351</v>
+        <v>5415.6484563547829</v>
       </c>
       <c r="I22" s="5">
-        <v>5730.875567415168</v>
+        <v>6707.5605704434793</v>
       </c>
       <c r="J22" s="5">
-        <v>7367.0007114785312</v>
+        <v>8488.4240743499467</v>
       </c>
       <c r="K22" s="5">
-        <v>10771.179066321567</v>
+        <v>11497.49260051804</v>
       </c>
       <c r="L22" s="5">
-        <v>12259.044145281798</v>
+        <v>13526.461882962401</v>
       </c>
       <c r="M22" s="5">
         <v>0.05</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1649,31 +1649,31 @@
         <v>30</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G23" s="5">
-        <v>4382.1187650838265</v>
+        <v>2703.52363764243</v>
       </c>
       <c r="H23" s="5">
-        <v>5415.6484563547829</v>
+        <v>3297.9045470530368</v>
       </c>
       <c r="I23" s="5">
-        <v>6707.5605704434793</v>
+        <v>4040.8806838162964</v>
       </c>
       <c r="J23" s="5">
-        <v>8488.4240743499467</v>
+        <v>5158.6007674927378</v>
       </c>
       <c r="K23" s="5">
-        <v>11497.49260051804</v>
+        <v>7499.0002050262674</v>
       </c>
       <c r="L23" s="5">
-        <v>13526.461882962401</v>
+        <v>8822.3531823838439</v>
       </c>
       <c r="M23" s="5">
         <v>0.05</v>
@@ -1693,31 +1693,31 @@
         <v>30</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G24" s="5">
-        <v>2703.52363764243</v>
+        <v>3855.9698564123432</v>
       </c>
       <c r="H24" s="5">
-        <v>3297.9045470530368</v>
+        <v>4716.4623205154285</v>
       </c>
       <c r="I24" s="5">
-        <v>4040.8806838162964</v>
+        <v>5792.0779006442854</v>
       </c>
       <c r="J24" s="5">
-        <v>5158.6007674927378</v>
+        <v>6588.07</v>
       </c>
       <c r="K24" s="5">
-        <v>7499.0002050262674</v>
+        <v>9501.7900000000009</v>
       </c>
       <c r="L24" s="5">
-        <v>8822.3531823838439</v>
+        <v>10778.33</v>
       </c>
       <c r="M24" s="5">
         <v>0.05</v>
@@ -1737,37 +1737,37 @@
         <v>30</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G25" s="5">
-        <v>3855.9698564123432</v>
+        <v>3450.2222156208268</v>
       </c>
       <c r="H25" s="5">
-        <v>4716.4623205154285</v>
+        <v>4209.2777695260338</v>
       </c>
       <c r="I25" s="5">
-        <v>5792.0779006442854</v>
+        <v>4861.5911361633198</v>
       </c>
       <c r="J25" s="5">
-        <v>6588.07</v>
+        <v>5592.27</v>
       </c>
       <c r="K25" s="5">
-        <v>9501.7900000000009</v>
+        <v>8072.91</v>
       </c>
       <c r="L25" s="5">
-        <v>10778.33</v>
+        <v>9176.06</v>
       </c>
       <c r="M25" s="5">
         <v>0.05</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1781,31 +1781,31 @@
         <v>30</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26" s="5">
-        <v>3450.2222156208268</v>
+        <v>2483.9672538752698</v>
       </c>
       <c r="H26" s="5">
-        <v>4209.2777695260338</v>
+        <v>3023.4590673440875</v>
       </c>
       <c r="I26" s="5">
-        <v>4861.5911361633198</v>
+        <v>3697.8238341801098</v>
       </c>
       <c r="J26" s="5">
-        <v>5592.27</v>
+        <v>4379.0200000000004</v>
       </c>
       <c r="K26" s="5">
-        <v>8072.91</v>
+        <v>6339.57</v>
       </c>
       <c r="L26" s="5">
-        <v>9176.06</v>
+        <v>7218.28</v>
       </c>
       <c r="M26" s="5">
         <v>0.05</v>
@@ -1825,31 +1825,31 @@
         <v>30</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G27" s="5">
-        <v>2483.9672538752698</v>
+        <v>3847.3710540220886</v>
       </c>
       <c r="H27" s="5">
-        <v>3023.4590673440875</v>
+        <v>4716.2138175276114</v>
       </c>
       <c r="I27" s="5">
-        <v>3697.8238341801098</v>
+        <v>5802.2672719095126</v>
       </c>
       <c r="J27" s="5">
-        <v>4379.0200000000004</v>
-      </c>
-      <c r="K27" s="5">
-        <v>6339.57</v>
+        <v>6769.0007114785312</v>
+      </c>
+      <c r="K27" s="6">
+        <v>9600</v>
       </c>
       <c r="L27" s="5">
-        <v>7218.28</v>
+        <v>11294.117647058823</v>
       </c>
       <c r="M27" s="5">
         <v>0.05</v>
@@ -1869,7 +1869,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>30</v>
@@ -1878,22 +1878,22 @@
         <v>37</v>
       </c>
       <c r="G28" s="5">
-        <v>3847.3710540220886</v>
+        <v>4506.1187650838265</v>
       </c>
       <c r="H28" s="5">
-        <v>4716.2138175276114</v>
+        <v>5539.6484563547829</v>
       </c>
       <c r="I28" s="5">
-        <v>5802.2672719095126</v>
+        <v>6831.5605704434793</v>
       </c>
       <c r="J28" s="5">
-        <v>6769.0007114785312</v>
-      </c>
-      <c r="K28" s="6">
-        <v>9600</v>
+        <v>8978.2859375357784</v>
+      </c>
+      <c r="K28" s="5">
+        <v>13222.318797939814</v>
       </c>
       <c r="L28" s="5">
-        <v>11294.117647058823</v>
+        <v>15555.66917404684</v>
       </c>
       <c r="M28" s="5">
         <v>0.05</v>
@@ -1904,40 +1904,40 @@
     </row>
     <row r="29" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G29" s="5">
-        <v>4506.1187650838265</v>
+        <v>1092.0836607531553</v>
       </c>
       <c r="H29" s="5">
-        <v>5539.6484563547829</v>
+        <v>1358.1939596522056</v>
       </c>
       <c r="I29" s="5">
-        <v>6831.5605704434793</v>
+        <v>1938.1184385513945</v>
       </c>
       <c r="J29" s="5">
-        <v>8978.2859375357784</v>
+        <v>2319.7494873601095</v>
       </c>
       <c r="K29" s="5">
-        <v>13222.318797939814</v>
+        <v>3803.4347378368007</v>
       </c>
       <c r="L29" s="5">
-        <v>15555.66917404684</v>
+        <v>4474.6291033374127</v>
       </c>
       <c r="M29" s="5">
         <v>0.05</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>45</v>
@@ -1957,31 +1957,31 @@
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1092.0836607531553</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1358.1939596522056</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1938.1184385513945</v>
-      </c>
-      <c r="J30" s="5">
-        <v>2319.7494873601095</v>
-      </c>
-      <c r="K30" s="5">
-        <v>3803.4347378368007</v>
-      </c>
-      <c r="L30" s="5">
-        <v>4474.6291033374127</v>
+        <v>46</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>2860</v>
+      </c>
+      <c r="L30" s="6">
+        <v>2860</v>
       </c>
       <c r="M30" s="5">
         <v>0.05</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>45</v>
@@ -2001,31 +2001,31 @@
         <v>15</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
-        <v>2860</v>
-      </c>
-      <c r="L31" s="6">
-        <v>2860</v>
+        <v>67</v>
+      </c>
+      <c r="G31" s="5">
+        <v>687.88137018381656</v>
+      </c>
+      <c r="H31" s="5">
+        <v>881.22391099244828</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1147.3170193037138</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1431.0132895059762</v>
+      </c>
+      <c r="K31" s="5">
+        <v>2580.8229440383957</v>
+      </c>
+      <c r="L31" s="5">
+        <v>3036.2622871039953</v>
       </c>
       <c r="M31" s="5">
         <v>0.05</v>
@@ -2045,31 +2045,31 @@
         <v>15</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="G32" s="5">
-        <v>687.88137018381656</v>
+        <v>1255.2739105883418</v>
       </c>
       <c r="H32" s="5">
-        <v>881.22391099244828</v>
+        <v>1564.0512483677171</v>
       </c>
       <c r="I32" s="5">
-        <v>1147.3170193037138</v>
+        <v>2221.8147087536568</v>
       </c>
       <c r="J32" s="5">
-        <v>1431.0132895059762</v>
+        <v>2671.2110546075951</v>
       </c>
       <c r="K32" s="5">
-        <v>2580.8229440383957</v>
+        <v>4373.3371040578177</v>
       </c>
       <c r="L32" s="5">
-        <v>3036.2622871039953</v>
+        <v>5145.1024753621377</v>
       </c>
       <c r="M32" s="5">
         <v>0.05</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="33" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>45</v>
@@ -2089,13 +2089,13 @@
         <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G33" s="5">
         <v>1255.2739105883418</v>
@@ -2133,31 +2133,31 @@
         <v>15</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G34" s="5">
-        <v>1255.2739105883418</v>
+        <v>948.98470956610151</v>
       </c>
       <c r="H34" s="5">
-        <v>1564.0512483677171</v>
+        <v>1215.0823163489374</v>
       </c>
       <c r="I34" s="5">
-        <v>2221.8147087536568</v>
+        <v>1728.4964111111485</v>
       </c>
       <c r="J34" s="5">
-        <v>2671.2110546075951</v>
+        <v>2073.7006044051936</v>
       </c>
       <c r="K34" s="5">
-        <v>4373.3371040578177</v>
+        <v>3396.757002626543</v>
       </c>
       <c r="L34" s="5">
-        <v>5145.1024753621377</v>
+        <v>3996.1847089724033</v>
       </c>
       <c r="M34" s="5">
         <v>0.05</v>
@@ -2177,42 +2177,42 @@
         <v>15</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G35" s="5">
-        <v>948.98470956610151</v>
+        <v>1443.5452280006407</v>
       </c>
       <c r="H35" s="5">
-        <v>1215.0823163489374</v>
+        <v>1800.0608280566739</v>
       </c>
       <c r="I35" s="5">
-        <v>1728.4964111111485</v>
+        <v>2560.7271469186935</v>
       </c>
       <c r="J35" s="5">
-        <v>2073.7006044051936</v>
+        <v>3072.8863287726599</v>
       </c>
       <c r="K35" s="5">
-        <v>3396.757002626543</v>
+        <v>5028.5907386272665</v>
       </c>
       <c r="L35" s="5">
-        <v>3996.1847089724033</v>
+        <v>5915.9891042673726</v>
       </c>
       <c r="M35" s="5">
         <v>0.05</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>45</v>
@@ -2221,31 +2221,31 @@
         <v>15</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G36" s="5">
-        <v>1443.5452280006407</v>
+        <v>948.98470956610151</v>
       </c>
       <c r="H36" s="5">
-        <v>1800.0608280566739</v>
+        <v>1215.0823163489374</v>
       </c>
       <c r="I36" s="5">
-        <v>2560.7271469186935</v>
+        <v>1728.4964111111485</v>
       </c>
       <c r="J36" s="5">
-        <v>3072.8863287726599</v>
+        <v>2073.7006044051936</v>
       </c>
       <c r="K36" s="5">
-        <v>5028.5907386272665</v>
+        <v>3396.757002626543</v>
       </c>
       <c r="L36" s="5">
-        <v>5915.9891042673726</v>
+        <v>3996.1847089724033</v>
       </c>
       <c r="M36" s="5">
         <v>0.05</v>
@@ -2265,31 +2265,31 @@
         <v>15</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37" s="5">
-        <v>948.98470956610151</v>
+        <v>687.88137018381656</v>
       </c>
       <c r="H37" s="5">
-        <v>1215.0823163489374</v>
+        <v>881.22391099244828</v>
       </c>
       <c r="I37" s="5">
-        <v>1728.4964111111485</v>
+        <v>1147.3170193037138</v>
       </c>
       <c r="J37" s="5">
-        <v>2073.7006044051936</v>
+        <v>1431.0132895059762</v>
       </c>
       <c r="K37" s="5">
-        <v>3396.757002626543</v>
+        <v>2580.8229440383957</v>
       </c>
       <c r="L37" s="5">
-        <v>3996.1847089724033</v>
+        <v>3036.2622871039953</v>
       </c>
       <c r="M37" s="5">
         <v>0.05</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="38" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>45</v>
@@ -2315,72 +2315,28 @@
         <v>15</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="5">
-        <v>687.88137018381656</v>
-      </c>
-      <c r="H38" s="5">
-        <v>881.22391099244828</v>
-      </c>
-      <c r="I38" s="5">
-        <v>1147.3170193037138</v>
-      </c>
-      <c r="J38" s="5">
-        <v>1431.0132895059762</v>
-      </c>
-      <c r="K38" s="5">
-        <v>2580.8229440383957</v>
-      </c>
-      <c r="L38" s="5">
-        <v>3036.2622871039953</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>26600</v>
+      </c>
+      <c r="L38" s="5"/>
       <c r="M38" s="5">
         <v>0.05</v>
       </c>
-      <c r="N38" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="6">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
-        <v>26600</v>
-      </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="N39" s="8"/>
+      <c r="N38" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
